--- a/public/Workflows/workflows.xlsx
+++ b/public/Workflows/workflows.xlsx
@@ -5,14 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tesisdss\public\Workflows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tesisdss\public\workflows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Libración Cred. Hab." sheetId="2" r:id="rId1"/>
+    <sheet name="Revisión de decretos" sheetId="5" r:id="rId2"/>
+    <sheet name="Proc, Judicial de Expropiación" sheetId="3" r:id="rId3"/>
+    <sheet name="Dictamen u Opinión" sheetId="4" r:id="rId4"/>
+    <sheet name="Reposos del Personal" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="108">
   <si>
     <t>Inicial</t>
   </si>
@@ -56,21 +60,9 @@
     <t>Nombre estado</t>
   </si>
   <si>
-    <t>Enviado a unidad de asuntos legales</t>
-  </si>
-  <si>
     <t>Nombre transición</t>
   </si>
   <si>
-    <t>Cumple requisitos</t>
-  </si>
-  <si>
-    <t>No cumple requisitos</t>
-  </si>
-  <si>
-    <t>Incumplimiento de requisitos</t>
-  </si>
-  <si>
     <t>Worklflow: Revisión de Decretos del Ejecutivo Regional</t>
   </si>
   <si>
@@ -80,59 +72,293 @@
     <t>Jefe de asuntos legales</t>
   </si>
   <si>
-    <t>Revisión de decreto</t>
-  </si>
-  <si>
-    <t>Decreto en revisión</t>
-  </si>
-  <si>
-    <t>Remitir a la coordinación general</t>
-  </si>
-  <si>
     <t>Recibido por coordinador general</t>
   </si>
   <si>
     <t>Coordinador general</t>
   </si>
   <si>
-    <t>Remitir al procurador general</t>
-  </si>
-  <si>
     <t>Recibido por el procurador general</t>
   </si>
   <si>
     <t>Procurador general</t>
   </si>
   <si>
-    <t xml:space="preserve">Incumplimiento de requisitos </t>
-  </si>
-  <si>
     <t>Recepción de la solicitud - Recepción</t>
   </si>
   <si>
     <t>Recepción de la solicitud - Unidad de asuntos legales</t>
   </si>
   <si>
-    <t>Revisión de solicitud</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solicitud en revisión </t>
   </si>
   <si>
-    <t>Recepción de decreto - Jefe de asuntos legales</t>
-  </si>
-  <si>
-    <t>Remitir al ejecutivo regional</t>
-  </si>
-  <si>
-    <t>Remitido al ejecutivo regional</t>
+    <t>Worklflow: Elaboración de Documento de Liberación de Créditos Habitacionales</t>
+  </si>
+  <si>
+    <t>Recepción del documento - Jefe de asuntos legales</t>
+  </si>
+  <si>
+    <t>Documento en revisión - Jefe de asuntos legales</t>
+  </si>
+  <si>
+    <t>Documento en revisión - Procurador General</t>
+  </si>
+  <si>
+    <t>Firma Documento de Liberación y Oficio de Remisión</t>
+  </si>
+  <si>
+    <t>Worklflow: Procedimiento Judicial de Expropiación</t>
+  </si>
+  <si>
+    <t>Apertura Expediente de Expropiación</t>
+  </si>
+  <si>
+    <t>Apertura de expediente</t>
+  </si>
+  <si>
+    <t>Conforme a Leyes</t>
+  </si>
+  <si>
+    <t>Via Judicial</t>
+  </si>
+  <si>
+    <t>En espera de decisión de tribunal</t>
+  </si>
+  <si>
+    <t>Conforme a lo establecido en la ley</t>
+  </si>
+  <si>
+    <t>Procede arreglo amistoso</t>
+  </si>
+  <si>
+    <t>No procede arreglo amistoso</t>
+  </si>
+  <si>
+    <t>Decisión recibida</t>
+  </si>
+  <si>
+    <t>Remitido al procurador general</t>
+  </si>
+  <si>
+    <t>Recibido por el procurador</t>
+  </si>
+  <si>
+    <t>Arreglo amistoso</t>
+  </si>
+  <si>
+    <t>Actuaciones Judiciales ante el tribunal competente</t>
+  </si>
+  <si>
+    <t>Tramites para la adquisición del inmueble ante el registro inmobiliario</t>
+  </si>
+  <si>
+    <t>Apertura Expediente de expropiación</t>
+  </si>
+  <si>
+    <t>Arreglo amistoso de expopiación</t>
+  </si>
+  <si>
+    <t>Conforme a leyes</t>
+  </si>
+  <si>
+    <t>Actuaciones judiciales ante el tribunal competente</t>
+  </si>
+  <si>
+    <t>Via judicial</t>
+  </si>
+  <si>
+    <t>Actuaciones judiciales</t>
+  </si>
+  <si>
+    <t>Worklflow: Dictamen u Opinión Jurídica</t>
+  </si>
+  <si>
+    <t>Revisión de requisitos de ley</t>
+  </si>
+  <si>
+    <t>Remitido a unidad de asuntos legales</t>
+  </si>
+  <si>
+    <t>Jefe de unidad asuntos legales</t>
+  </si>
+  <si>
+    <t>Remitido a jefe de unidad de asuntos legales</t>
+  </si>
+  <si>
+    <t>Recepción de dictamen u opinión jurídica</t>
+  </si>
+  <si>
+    <t>Revisión de dictamen u opinión jurídica</t>
+  </si>
+  <si>
+    <t>Recibido por la coordinación general</t>
+  </si>
+  <si>
+    <t>Remitido a coordinación general</t>
+  </si>
+  <si>
+    <t>En revisión</t>
+  </si>
+  <si>
+    <t>Remitido a ejecutivo regional</t>
+  </si>
+  <si>
+    <t>Elaboración proyecto de decreto</t>
+  </si>
+  <si>
+    <t>Remitido al despacho</t>
+  </si>
+  <si>
+    <t>Remitir a unidad de asuntos legales</t>
+  </si>
+  <si>
+    <t>Recibido por unidad de asuntos legales</t>
+  </si>
+  <si>
+    <t>Revisión de requisitos</t>
+  </si>
+  <si>
+    <t>No cumple con los requisitos</t>
+  </si>
+  <si>
+    <t>Cumple con los requisitos</t>
+  </si>
+  <si>
+    <t>Remitir a jefe de unidad</t>
+  </si>
+  <si>
+    <t>Recibido dictamen u opinión jurídica</t>
+  </si>
+  <si>
+    <t>Revisión de dictamen</t>
+  </si>
+  <si>
+    <t>Remitir a coordinación general</t>
+  </si>
+  <si>
+    <t>Remitir a ejecutivo regional</t>
+  </si>
+  <si>
+    <t>Recibido por coordinación general</t>
+  </si>
+  <si>
+    <t>Proceso de revisión</t>
+  </si>
+  <si>
+    <t>Remitido a la coordinación general</t>
+  </si>
+  <si>
+    <t>Elaboración del documento de liberación</t>
+  </si>
+  <si>
+    <t>Sin correcciones</t>
+  </si>
+  <si>
+    <t>Correcciones pendientes</t>
+  </si>
+  <si>
+    <t>Revisión de la solicitud</t>
+  </si>
+  <si>
+    <t>Remitir a jefe de unidad de asuntos legales</t>
+  </si>
+  <si>
+    <t>Recibido por jefe de unidad de asuntos legales</t>
+  </si>
+  <si>
+    <t>Revisión del documento</t>
+  </si>
+  <si>
+    <t>Recibido por la coordinador general</t>
+  </si>
+  <si>
+    <t>Recibido por la coordinación</t>
+  </si>
+  <si>
+    <t>Remitir al despacho</t>
+  </si>
+  <si>
+    <t>Recepción del documento</t>
+  </si>
+  <si>
+    <t>Revisión de documento dentro de normativa</t>
+  </si>
+  <si>
+    <t>Registro en archivo digital</t>
+  </si>
+  <si>
+    <t>Remitido a asistente de talento humano</t>
+  </si>
+  <si>
+    <t>Foliado y Sellado</t>
+  </si>
+  <si>
+    <t>Expediente archivado</t>
+  </si>
+  <si>
+    <t>Informe de estatus a jefe de talento humano</t>
+  </si>
+  <si>
+    <t>Recepción de estatus a jefe de talento humano</t>
+  </si>
+  <si>
+    <t>Informe de estatus a procurador general</t>
+  </si>
+  <si>
+    <t>Recepción de estatus a procurador general</t>
+  </si>
+  <si>
+    <t>No cumple con normativa</t>
+  </si>
+  <si>
+    <t>Worklflow: Reposo del Personal</t>
+  </si>
+  <si>
+    <t>Jefe de unidad de talento humano</t>
+  </si>
+  <si>
+    <t>Asistente talento humano</t>
+  </si>
+  <si>
+    <t>No cumple con la normativa</t>
+  </si>
+  <si>
+    <t>Cumple con la normativa</t>
+  </si>
+  <si>
+    <t>Remitir a asistente</t>
+  </si>
+  <si>
+    <t>Foliar y sellar</t>
+  </si>
+  <si>
+    <t>Archivar expediente</t>
+  </si>
+  <si>
+    <t>Informar estatus a jefe de talento humano</t>
+  </si>
+  <si>
+    <t>Informar estatus a procurador general</t>
+  </si>
+  <si>
+    <t>Recepción de estatus jefe de talento humano</t>
+  </si>
+  <si>
+    <t>Recepción de estatus procurador general</t>
+  </si>
+  <si>
+    <t>Solicitud rechazada</t>
+  </si>
+  <si>
+    <t>Espera de decisión de tribunal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +383,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -190,15 +443,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -208,8 +458,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,276 +752,1853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="B2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E41"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B24:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B22:D22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:D25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>33</v>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A19:C19"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
